--- a/data/trans_orig/P50A_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P50A_1-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15064</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8439</v>
+        <v>7961</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26531</v>
+        <v>25512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03461089391898847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01938955759299497</v>
+        <v>0.01828983358527907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06095645718926883</v>
+        <v>0.05861350745564549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10761</v>
+        <v>12099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009555434519595365</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03454785979571362</v>
+        <v>0.03884606643245384</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -784,19 +784,19 @@
         <v>18041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9859</v>
+        <v>10612</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29628</v>
+        <v>30133</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02415981745866412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.013202669126101</v>
+        <v>0.01421177793517202</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03967677670184051</v>
+        <v>0.04035359971211776</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3002</v>
+        <v>2994</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14328</v>
+        <v>13765</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01652294732394219</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006897059733760449</v>
+        <v>0.006878126431335942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03291928547816225</v>
+        <v>0.03162620982896622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6325</v>
+        <v>7095</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006618200964757696</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02030583501625654</v>
+        <v>0.02277885188081574</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -855,19 +855,19 @@
         <v>9253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4208</v>
+        <v>4103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18105</v>
+        <v>17630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01239150196227927</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005634868404557502</v>
+        <v>0.005495332044064815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02424600608998888</v>
+        <v>0.02361015842503411</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>6361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2148</v>
+        <v>2270</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13845</v>
+        <v>13108</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0146150571938497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004936196852646651</v>
+        <v>0.005216494375004655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03180949590128691</v>
+        <v>0.03011673125425556</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -905,19 +905,19 @@
         <v>2872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7722</v>
+        <v>7794</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009219350052081798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002937551376290271</v>
+        <v>0.00299519133390371</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02479359778774472</v>
+        <v>0.02502309666663626</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -926,19 +926,19 @@
         <v>9233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4940</v>
+        <v>4200</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18077</v>
+        <v>16548</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01236441205510998</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006615261632803657</v>
+        <v>0.005625236693974854</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02420832688472156</v>
+        <v>0.02216118739776596</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>406634</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>393654</v>
+        <v>393084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>416598</v>
+        <v>416083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9342511015632197</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9044300994055426</v>
+        <v>0.9031206909880727</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9571433810228143</v>
+        <v>0.9559607891522622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>273</v>
@@ -976,19 +976,19 @@
         <v>303562</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295430</v>
+        <v>294588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>308344</v>
+        <v>308414</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9746070144635651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9485006596461202</v>
+        <v>0.9457963654920437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9899621189925988</v>
+        <v>0.9901868737618164</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>649</v>
@@ -997,19 +997,19 @@
         <v>710196</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>695894</v>
+        <v>695688</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>720886</v>
+        <v>721514</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9510842685239467</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9319312022800061</v>
+        <v>0.9316553449324267</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9654006891314943</v>
+        <v>0.9662416581158111</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>4719</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10710</v>
+        <v>11189</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01143746980512956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004172001439592024</v>
+        <v>0.004205386736976607</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02595917184452039</v>
+        <v>0.0271207885587408</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4843</v>
+        <v>4415</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003180982919658495</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01447253139977524</v>
+        <v>0.01319529409087156</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1143,19 +1143,19 @@
         <v>5783</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2672</v>
+        <v>2358</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>11817</v>
+        <v>12540</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007739989428713143</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003576230583135066</v>
+        <v>0.003155194626044262</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01581606562280794</v>
+        <v>0.01678307440519492</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11883</v>
+        <v>12665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008089242594844739</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02880309398138688</v>
+        <v>0.03069761931136018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5039</v>
+        <v>5548</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002865794614405879</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01505975312045938</v>
+        <v>0.01658090716358734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1214,19 +1214,19 @@
         <v>4296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13472</v>
+        <v>13215</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005750039896068486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001266539143287637</v>
+        <v>0.001261365421598879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01803068160874546</v>
+        <v>0.01768687166741308</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>7929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3227</v>
+        <v>3874</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15533</v>
+        <v>14887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01921832221074956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00782094139148133</v>
+        <v>0.009389443185744235</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03764865703644035</v>
+        <v>0.03608394514822161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>4044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10059</v>
+        <v>9434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01208478818866811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003068019314672769</v>
+        <v>0.00309762791707453</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03006256682645106</v>
+        <v>0.02819391911037517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1285,19 +1285,19 @@
         <v>11973</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6308</v>
+        <v>6290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20577</v>
+        <v>20421</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01602373080316687</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008442734750299444</v>
+        <v>0.008418605875346612</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02753987018302629</v>
+        <v>0.02733092201895158</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>396588</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>386244</v>
+        <v>385960</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>403810</v>
+        <v>402805</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9612549653892761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9361828357861993</v>
+        <v>0.9354956387467658</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9787611547519528</v>
+        <v>0.9763236823458773</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>296</v>
@@ -1335,19 +1335,19 @@
         <v>328541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>321663</v>
+        <v>322396</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>332481</v>
+        <v>332569</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9818684342772676</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.961312311796547</v>
+        <v>0.9635030949388756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.993644697032444</v>
+        <v>0.9939075247947119</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>651</v>
@@ -1356,19 +1356,19 @@
         <v>725130</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>713696</v>
+        <v>713327</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>732909</v>
+        <v>733703</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9704862398720515</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9551832072691087</v>
+        <v>0.9546894290451211</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9808973571383568</v>
+        <v>0.981960503541942</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>7775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14784</v>
+        <v>14520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01253313984716512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006024055362406576</v>
+        <v>0.006030700335330821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02383311659039559</v>
+        <v>0.02340791941931612</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5572</v>
+        <v>4897</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003965597175698064</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02222203756732931</v>
+        <v>0.01953172880049239</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1502,19 +1502,19 @@
         <v>8769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4596</v>
+        <v>4072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16728</v>
+        <v>15679</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01006702531690846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005276448621928848</v>
+        <v>0.004675411381794693</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01920455269567794</v>
+        <v>0.01799991789231532</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>10283</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5099</v>
+        <v>5018</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17187</v>
+        <v>18578</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01657766030358768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008219759831189088</v>
+        <v>0.008090227941413031</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02770719017159811</v>
+        <v>0.0299492655605165</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7088</v>
+        <v>6323</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.00819790547597846</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02826860603909235</v>
+        <v>0.02521899239116528</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -1573,19 +1573,19 @@
         <v>12339</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6303</v>
+        <v>6219</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20572</v>
+        <v>20551</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01416559935066372</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007236125531860879</v>
+        <v>0.00714012862070902</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02361823648793243</v>
+        <v>0.02359415813304711</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>20837</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13339</v>
+        <v>12928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32579</v>
+        <v>31765</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03359019408506014</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02150388144174148</v>
+        <v>0.02084121992822069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05252024692613035</v>
+        <v>0.05120716238381255</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7324</v>
+        <v>7227</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008321422920808645</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02921261138453705</v>
+        <v>0.02882522971294223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1644,19 +1644,19 @@
         <v>22923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14606</v>
+        <v>15515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35062</v>
+        <v>36951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0263167335235593</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01676857073879486</v>
+        <v>0.0178126125280443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04025254193137068</v>
+        <v>0.0424214975872565</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>581422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>566685</v>
+        <v>566991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>591589</v>
+        <v>591865</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.937299005764187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9135423009984799</v>
+        <v>0.9140352283931987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9536896225131494</v>
+        <v>0.9541347841877332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>230</v>
@@ -1694,19 +1694,19 @@
         <v>245587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>239421</v>
+        <v>239543</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>248718</v>
+        <v>248723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9795150744275148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9549233107834335</v>
+        <v>0.9554103485109339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9920045454396687</v>
+        <v>0.9920218411077243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>775</v>
@@ -1715,19 +1715,19 @@
         <v>827009</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>811682</v>
+        <v>812050</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>837707</v>
+        <v>837960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9494506418088685</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9318548511169832</v>
+        <v>0.9322769185972413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9617330062822395</v>
+        <v>0.9620236186998107</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>30709</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20338</v>
+        <v>21683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43230</v>
+        <v>45484</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02705000434682981</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01791439027920033</v>
+        <v>0.01909954699807127</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03807883518151169</v>
+        <v>0.04006450878055966</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1840,19 +1840,19 @@
         <v>8175</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3969</v>
+        <v>4027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15177</v>
+        <v>15880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01090808706876092</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005296049155854343</v>
+        <v>0.005373933469924907</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02025133797283582</v>
+        <v>0.02118921539180343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1861,19 +1861,19 @@
         <v>38884</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27269</v>
+        <v>27816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51789</v>
+        <v>54027</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02063138925914898</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01446834440149834</v>
+        <v>0.01475882599107157</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02747847594596923</v>
+        <v>0.02866625475220457</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>30620</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20811</v>
+        <v>20698</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41925</v>
+        <v>41196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02697111365509955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01833157666103491</v>
+        <v>0.0182314281470535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03692903164893638</v>
+        <v>0.03628684885911669</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1911,19 +1911,19 @@
         <v>12251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7034</v>
+        <v>7150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21684</v>
+        <v>21112</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01634762197441314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009385968394051159</v>
+        <v>0.009540559893598774</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02893461485105011</v>
+        <v>0.02817087611447395</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -1932,19 +1932,19 @@
         <v>42871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31093</v>
+        <v>31582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57695</v>
+        <v>56088</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02274682587002033</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01649728183658178</v>
+        <v>0.01675701675463689</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03061213552543734</v>
+        <v>0.02975935791705893</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>32988</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22534</v>
+        <v>21527</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46486</v>
+        <v>47083</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02905758771872552</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01984892355462416</v>
+        <v>0.01896166048478964</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04094705204622467</v>
+        <v>0.04147249023970753</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1982,19 +1982,19 @@
         <v>9923</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4962</v>
+        <v>4867</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19597</v>
+        <v>20024</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01324136639248738</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006620632995639104</v>
+        <v>0.006494380987140554</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0261496774301263</v>
+        <v>0.02671910397296419</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>38</v>
@@ -2003,19 +2003,19 @@
         <v>42912</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30822</v>
+        <v>30100</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>60218</v>
+        <v>59138</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02276848122128246</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01635363878988516</v>
+        <v>0.01597043140391342</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03195094872274706</v>
+        <v>0.03137799743191169</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>1040961</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1022162</v>
+        <v>1021751</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1059285</v>
+        <v>1059403</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9169212942793451</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9003626164553861</v>
+        <v>0.9000009163964392</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.933062267050909</v>
+        <v>0.9331665502973729</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>666</v>
@@ -2053,19 +2053,19 @@
         <v>719078</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>705873</v>
+        <v>706191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>727799</v>
+        <v>728207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9595029245643386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9418820937099364</v>
+        <v>0.942307154041485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9711390499434459</v>
+        <v>0.9716836331263007</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1639</v>
@@ -2074,19 +2074,19 @@
         <v>1760039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1735823</v>
+        <v>1735509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1781197</v>
+        <v>1780744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9338533036495482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9210048385302474</v>
+        <v>0.9208381260616887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9450795661364015</v>
+        <v>0.9448392261107242</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>7980</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3921</v>
+        <v>3758</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15041</v>
+        <v>15045</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01616068987185197</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007941452948705428</v>
+        <v>0.007610854789060391</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03046120823322665</v>
+        <v>0.030468129723994</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2199,19 +2199,19 @@
         <v>12025</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5970</v>
+        <v>5990</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21250</v>
+        <v>21018</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01657505811136841</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.008228525169269524</v>
+        <v>0.008256592774992978</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02929055149983362</v>
+        <v>0.02897178176433993</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2220,19 +2220,19 @@
         <v>20005</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12050</v>
+        <v>12778</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31026</v>
+        <v>31848</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01640724427414477</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009883459558010305</v>
+        <v>0.01048022713099674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0254470217416258</v>
+        <v>0.02612118270538901</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>15381</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8975</v>
+        <v>9164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24773</v>
+        <v>25105</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03114902274902561</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01817637970217245</v>
+        <v>0.0185582283606004</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05016951407467404</v>
+        <v>0.05084208036179658</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2270,19 +2270,19 @@
         <v>16750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9553</v>
+        <v>10348</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25737</v>
+        <v>27595</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02308901994981988</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01316854189844372</v>
+        <v>0.01426323912435105</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03547601219703714</v>
+        <v>0.03803680982498441</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -2291,19 +2291,19 @@
         <v>32131</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21798</v>
+        <v>23175</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44810</v>
+        <v>44560</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02635321799585369</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0178777796413244</v>
+        <v>0.01900725890164226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03675200755302643</v>
+        <v>0.03654704785886494</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>18427</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11487</v>
+        <v>11347</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29674</v>
+        <v>29634</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03731884968244613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02326268069064041</v>
+        <v>0.02297954197280787</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06009560809301401</v>
+        <v>0.06001448875920958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2341,19 +2341,19 @@
         <v>11078</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5959</v>
+        <v>6017</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19354</v>
+        <v>19184</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01526968110360179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00821423850637254</v>
+        <v>0.008294171922226435</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02667778670987945</v>
+        <v>0.02644371852002205</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>29</v>
@@ -2362,19 +2362,19 @@
         <v>29505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20223</v>
+        <v>20262</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>42376</v>
+        <v>40967</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02419931236859666</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01658604316920931</v>
+        <v>0.01661829722878569</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03475556932253326</v>
+        <v>0.03360025235526797</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>451995</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>437465</v>
+        <v>439935</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>462658</v>
+        <v>464423</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9153714376966763</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8859457090622441</v>
+        <v>0.8909484972123015</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9369664552963837</v>
+        <v>0.9405407253935704</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>632</v>
@@ -2412,19 +2412,19 @@
         <v>685620</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>672297</v>
+        <v>672038</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>696737</v>
+        <v>697401</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.94506624083521</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9267013295130917</v>
+        <v>0.9263443579932175</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9603905597708658</v>
+        <v>0.9613052061806359</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1062</v>
@@ -2433,19 +2433,19 @@
         <v>1137614</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1117167</v>
+        <v>1118918</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1153153</v>
+        <v>1152926</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9330402253614049</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9162701340491044</v>
+        <v>0.9177065764949351</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9457851975741973</v>
+        <v>0.9455991349944347</v>
       </c>
     </row>
     <row r="28">
@@ -2537,19 +2537,19 @@
         <v>6633</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2891</v>
+        <v>2785</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12965</v>
+        <v>12906</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02607538007721719</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01136318964795093</v>
+        <v>0.01094911079918208</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05096616499344334</v>
+        <v>0.0507325196032972</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2558,19 +2558,19 @@
         <v>16052</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9845</v>
+        <v>9901</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>25211</v>
+        <v>25831</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01558804967625011</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009560354707703523</v>
+        <v>0.009614870791989295</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02448157833826089</v>
+        <v>0.0250843339155865</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>23</v>
@@ -2579,19 +2579,19 @@
         <v>22686</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15112</v>
+        <v>15171</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34215</v>
+        <v>33697</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01766554062685862</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01176774299099134</v>
+        <v>0.01181356040503246</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02664359013703885</v>
+        <v>0.02623982704680226</v>
       </c>
     </row>
     <row r="30">
@@ -2608,19 +2608,19 @@
         <v>6147</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2015</v>
+        <v>2895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12514</v>
+        <v>14142</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02416446220905466</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007922896056923414</v>
+        <v>0.01138069927100467</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04919377329165343</v>
+        <v>0.05559322933167821</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -2629,19 +2629,19 @@
         <v>18026</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>11091</v>
+        <v>10946</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27349</v>
+        <v>27064</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01750459290923177</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01076999841110892</v>
+        <v>0.01062949458409924</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02655796014368749</v>
+        <v>0.02628118408766486</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -2650,19 +2650,19 @@
         <v>24173</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16055</v>
+        <v>15987</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>35899</v>
+        <v>36207</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01882388177242441</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0125020432619838</v>
+        <v>0.01244918520039533</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02795481308036911</v>
+        <v>0.02819506021706861</v>
       </c>
     </row>
     <row r="31">
@@ -2679,19 +2679,19 @@
         <v>10553</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4984</v>
+        <v>5601</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18206</v>
+        <v>17774</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04148501218813351</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01959199480616366</v>
+        <v>0.02201695570676817</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0715682498096292</v>
+        <v>0.06986991292044407</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -2700,19 +2700,19 @@
         <v>24277</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15853</v>
+        <v>15603</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35041</v>
+        <v>34666</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0235743442535651</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01539404257294833</v>
+        <v>0.01515137283656056</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0340270186468728</v>
+        <v>0.03366373655115263</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>35</v>
@@ -2721,19 +2721,19 @@
         <v>34830</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25371</v>
+        <v>24587</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48509</v>
+        <v>48527</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02712236354262924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01975698781568456</v>
+        <v>0.01914650378869876</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03777456808670814</v>
+        <v>0.0377886686199059</v>
       </c>
     </row>
     <row r="32">
@@ -2750,19 +2750,19 @@
         <v>231055</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>220578</v>
+        <v>221025</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>239325</v>
+        <v>239236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9082751455255946</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8670912968204789</v>
+        <v>0.8688467671937594</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9407821072397605</v>
+        <v>0.9404324924072442</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>912</v>
@@ -2771,19 +2771,19 @@
         <v>971430</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>955961</v>
+        <v>955070</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>984292</v>
+        <v>984158</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.943333013160953</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9283110027395577</v>
+        <v>0.9274459235944316</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9558226849405012</v>
+        <v>0.9556931595024893</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1141</v>
@@ -2792,19 +2792,19 @@
         <v>1202485</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1184652</v>
+        <v>1183179</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1216945</v>
+        <v>1217316</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9363882140580877</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9225009660536542</v>
+        <v>0.9213543902609426</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9476481098567887</v>
+        <v>0.9479373305308534</v>
       </c>
     </row>
     <row r="33">
@@ -2896,19 +2896,19 @@
         <v>72880</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>56436</v>
+        <v>58051</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>91059</v>
+        <v>91154</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02174495235903821</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01683857950761691</v>
+        <v>0.0173205119855906</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02716898684741023</v>
+        <v>0.02719733086878342</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -2917,19 +2917,19 @@
         <v>41287</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29985</v>
+        <v>30016</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>54395</v>
+        <v>55894</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01213786628334435</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008815336952687313</v>
+        <v>0.008824229551065469</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01599147859881917</v>
+        <v>0.01643232704737588</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>109</v>
@@ -2938,19 +2938,19 @@
         <v>114167</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>93087</v>
+        <v>95666</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>137501</v>
+        <v>137885</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01690591595994343</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01378440775465648</v>
+        <v>0.01416627478214295</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02036117130169362</v>
+        <v>0.0204180858638341</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>72960</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>56976</v>
+        <v>57635</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>91315</v>
+        <v>91291</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02176881936872431</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01699958020479634</v>
+        <v>0.01719642895204413</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02724528139543388</v>
+        <v>0.0272381861913967</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>51</v>
@@ -2988,19 +2988,19 @@
         <v>52103</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>39918</v>
+        <v>40348</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>68108</v>
+        <v>69662</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0153178497312653</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01173553276379529</v>
+        <v>0.01186191937876846</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02002304713331911</v>
+        <v>0.02047988490601373</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>122</v>
@@ -3009,19 +3009,19 @@
         <v>125064</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>106398</v>
+        <v>105880</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>151325</v>
+        <v>149430</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01851950145492964</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01575551856525686</v>
+        <v>0.01567872258281516</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02240823310825265</v>
+        <v>0.02212772434230417</v>
       </c>
     </row>
     <row r="36">
@@ -3038,19 +3038,19 @@
         <v>97096</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>78995</v>
+        <v>77127</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>119628</v>
+        <v>117144</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02897009728966787</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02356945503211141</v>
+        <v>0.02301194232735014</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03569298175161362</v>
+        <v>0.03495189083946059</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -3059,19 +3059,19 @@
         <v>54279</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>40710</v>
+        <v>41664</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>70806</v>
+        <v>72886</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01595751561958693</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01196829802269178</v>
+        <v>0.01224887858916358</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02081609942846814</v>
+        <v>0.02142775119275821</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>145</v>
@@ -3080,19 +3080,19 @@
         <v>151375</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>128268</v>
+        <v>128626</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>176343</v>
+        <v>176902</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02241573149637842</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01899397825896523</v>
+        <v>0.01904706098923454</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0261130366304726</v>
+        <v>0.02619578571906095</v>
       </c>
     </row>
     <row r="37">
@@ -3109,19 +3109,19 @@
         <v>3108654</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3076361</v>
+        <v>3077260</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3138324</v>
+        <v>3137437</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9275161309825696</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9178811867022774</v>
+        <v>0.9181494304533319</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9363687901965468</v>
+        <v>0.9361039396143105</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3009</v>
@@ -3130,19 +3130,19 @@
         <v>3253818</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3229471</v>
+        <v>3229709</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3274745</v>
+        <v>3274460</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9565867683658035</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.949428983462439</v>
+        <v>0.9494990006007996</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9627389316171971</v>
+        <v>0.9626552580765031</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5917</v>
@@ -3151,19 +3151,19 @@
         <v>6362473</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6320346</v>
+        <v>6319289</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6397723</v>
+        <v>6396348</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9421588510887485</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9359206409951722</v>
+        <v>0.9357640837106679</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9473787253140415</v>
+        <v>0.947175077401025</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5209</v>
+        <v>5135</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002435764065468621</v>
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01225440486641611</v>
+        <v>0.0120784146780049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5201</v>
+        <v>5214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001342903198462823</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006744922990284316</v>
+        <v>0.006762342114160711</v>
       </c>
     </row>
     <row r="5">
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6090</v>
+        <v>6092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002867090498401914</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01432658606189462</v>
+        <v>0.01433023309185246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6097</v>
+        <v>6377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001580705231335921</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007907710270796035</v>
+        <v>0.008271054438191917</v>
       </c>
     </row>
     <row r="6">
@@ -3626,16 +3626,16 @@
         <v>1052</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10369</v>
+        <v>10463</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009844054190286715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002474570362509643</v>
+        <v>0.002475651598782286</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0243908810504518</v>
+        <v>0.02461275531621158</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3657,19 +3657,19 @@
         <v>4185</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9515</v>
+        <v>9436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005427295707901019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001355746888991888</v>
+        <v>0.001363759523607883</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01234072501171294</v>
+        <v>0.0122378144917515</v>
       </c>
     </row>
     <row r="7">
@@ -3686,19 +3686,19 @@
         <v>418666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>412292</v>
+        <v>410996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>422859</v>
+        <v>422014</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9848530912458427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9698594022175427</v>
+        <v>0.966811357049873</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9947167821453811</v>
+        <v>0.9927299437880998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -3720,19 +3720,19 @@
         <v>764618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>757200</v>
+        <v>757562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>767962</v>
+        <v>768812</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9916490958623002</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9820281631979284</v>
+        <v>0.9824982689126065</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9959860186477583</v>
+        <v>0.9970888851018719</v>
       </c>
     </row>
     <row r="8">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5552</v>
+        <v>5861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002940463003124338</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01490637098375495</v>
+        <v>0.01573789969301297</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7174</v>
+        <v>5526</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001479040073724743</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009688599209931658</v>
+        <v>0.007463742236379318</v>
       </c>
     </row>
     <row r="10">
@@ -3934,19 +3934,19 @@
         <v>4116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9878</v>
+        <v>9805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01105231930462047</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002796690872291618</v>
+        <v>0.002778010035543414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02652273249066791</v>
+        <v>0.02632680805344682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -3955,19 +3955,19 @@
         <v>2788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7477</v>
+        <v>7543</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007575001555230433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002494448753970368</v>
+        <v>0.002484407451600399</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02031898926365007</v>
+        <v>0.02049662989334701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -3976,19 +3976,19 @@
         <v>6904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2970</v>
+        <v>2895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14044</v>
+        <v>13058</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.009324077226292268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004011308147744824</v>
+        <v>0.003909616242081005</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01896723162786035</v>
+        <v>0.01763558348906922</v>
       </c>
     </row>
     <row r="12">
@@ -4005,19 +4005,19 @@
         <v>367227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>361230</v>
+        <v>360983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>370456</v>
+        <v>370440</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9860072176922552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9699054643344698</v>
+        <v>0.9692428927858389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9946790161626377</v>
+        <v>0.9946355592465446</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>345</v>
@@ -4026,19 +4026,19 @@
         <v>365214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>360525</v>
+        <v>360459</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>367084</v>
+        <v>367088</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9924249984447696</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9796810107363499</v>
+        <v>0.9795033701066529</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9975055512460296</v>
+        <v>0.9975155925483996</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>689</v>
@@ -4047,19 +4047,19 @@
         <v>732442</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>724963</v>
+        <v>725015</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>736693</v>
+        <v>736568</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.989196882699983</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9790965044434117</v>
+        <v>0.9791671259035493</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9949377853847075</v>
+        <v>0.9947689965528135</v>
       </c>
     </row>
     <row r="13">
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5455</v>
+        <v>5378</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001944263123018849</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01078627083484586</v>
+        <v>0.01063362992218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7059</v>
+        <v>7156</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01247697732232701</v>
@@ -4184,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04352026858528624</v>
+        <v>0.04411503584208867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -4193,19 +4193,19 @@
         <v>3007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8704</v>
+        <v>9030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004502002591172487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001462898401392104</v>
+        <v>0.001468114350070669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01303025770107633</v>
+        <v>0.01351954937057588</v>
       </c>
     </row>
     <row r="15">
@@ -4269,19 +4269,19 @@
         <v>9428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4306</v>
+        <v>4120</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17879</v>
+        <v>18302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0186410130518505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008514796773123435</v>
+        <v>0.008146266463919491</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03535260641627652</v>
+        <v>0.03618922119591943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5933</v>
+        <v>4916</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006071059369260222</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03657517143365658</v>
+        <v>0.03031010653199708</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -4311,19 +4311,19 @@
         <v>10412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4904</v>
+        <v>5219</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19476</v>
+        <v>18542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01558855515368251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007342508933478544</v>
+        <v>0.007813177988537512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0291582791251604</v>
+        <v>0.02775934365271861</v>
       </c>
     </row>
     <row r="17">
@@ -4340,19 +4340,19 @@
         <v>495333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486466</v>
+        <v>485982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>500689</v>
+        <v>500770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9794147238251306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9618815762866382</v>
+        <v>0.9609248295659414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9900040165808988</v>
+        <v>0.9901659680905897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>147</v>
@@ -4361,19 +4361,19 @@
         <v>159193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154154</v>
+        <v>153123</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161237</v>
+        <v>161218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9814519633084128</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9503838180026423</v>
+        <v>0.9440287580557161</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9940495980992878</v>
+        <v>0.993934431250459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>624</v>
@@ -4382,19 +4382,19 @@
         <v>654527</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>644470</v>
+        <v>645021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>660516</v>
+        <v>660793</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.979909442255145</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9648539306305165</v>
+        <v>0.9656787178162571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9888762411059101</v>
+        <v>0.9892917878660267</v>
       </c>
     </row>
     <row r="18">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6009</v>
+        <v>5378</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0009553503482093186</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005335829134488981</v>
+        <v>0.004775592845416534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8121</v>
+        <v>8155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002988918054646538</v>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01027457930327958</v>
+        <v>0.01031783225221478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -4528,19 +4528,19 @@
         <v>3438</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9208</v>
+        <v>10398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001793984385528276</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004759764399010209</v>
+        <v>0.0004781294345937687</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004804348963626871</v>
+        <v>0.005425246206700845</v>
       </c>
     </row>
     <row r="20">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5402</v>
+        <v>5776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0009621931545387178</v>
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004796842387949549</v>
+        <v>0.005128855954253293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6716</v>
+        <v>6782</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00243490397544768</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008496636906811605</v>
+        <v>0.008580766734410838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -4599,19 +4599,19 @@
         <v>3008</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8069</v>
+        <v>9006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001569532373013039</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0004883054612472482</v>
+        <v>0.0004906084443679427</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004209963068091231</v>
+        <v>0.00469921613024057</v>
       </c>
     </row>
     <row r="21">
@@ -4628,19 +4628,19 @@
         <v>7284</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3112</v>
+        <v>3100</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14757</v>
+        <v>14175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00646752865912086</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002763030738183403</v>
+        <v>0.002752369055498612</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01310386688826123</v>
+        <v>0.01258665416649074</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -4649,19 +4649,19 @@
         <v>7237</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3178</v>
+        <v>3077</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14408</v>
+        <v>13669</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009156981744094538</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004020742738904998</v>
+        <v>0.003893473269487928</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01822904222229187</v>
+        <v>0.01729433094567429</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -4670,19 +4670,19 @@
         <v>14521</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8026</v>
+        <v>8334</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23932</v>
+        <v>24531</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007576646831922169</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004187506435010508</v>
+        <v>0.004348327179869675</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01248690164113688</v>
+        <v>0.01279941508399924</v>
       </c>
     </row>
     <row r="22">
@@ -4699,19 +4699,19 @@
         <v>1116729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1109035</v>
+        <v>1109096</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1121911</v>
+        <v>1121619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9916149278381311</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9847830806606109</v>
+        <v>0.9848371243821911</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.996215992627605</v>
+        <v>0.9959569666981337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>755</v>
@@ -4720,19 +4720,19 @@
         <v>778851</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>770635</v>
+        <v>770330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>784255</v>
+        <v>784542</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9854191962258112</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9750248731473611</v>
+        <v>0.974639147866608</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9922567006332</v>
+        <v>0.9926204350218559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1825</v>
@@ -4741,19 +4741,19 @@
         <v>1895580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1885002</v>
+        <v>1884576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1903263</v>
+        <v>1902695</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9890598364095365</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.983540885828569</v>
+        <v>0.983318649518731</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9930690171176189</v>
+        <v>0.9927721968351975</v>
       </c>
     </row>
     <row r="23">
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8779</v>
+        <v>8812</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002930910765535978</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01466245901016207</v>
+        <v>0.01471717104701731</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -4866,19 +4866,19 @@
         <v>4911</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1908</v>
+        <v>1844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11327</v>
+        <v>11159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006890678780218717</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002677122373018164</v>
+        <v>0.002587175732443285</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01589203330214766</v>
+        <v>0.01565584529587505</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4887,19 +4887,19 @@
         <v>6666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2826</v>
+        <v>2846</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14925</v>
+        <v>13979</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005082939252093827</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002154921735765014</v>
+        <v>0.002169632944356395</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01138013651760272</v>
+        <v>0.01065851532099524</v>
       </c>
     </row>
     <row r="25">
@@ -4916,19 +4916,19 @@
         <v>3959</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9511</v>
+        <v>9885</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006612295873709798</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001564895968096284</v>
+        <v>0.001579005637086786</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01588552906546636</v>
+        <v>0.01650976191406947</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5343</v>
+        <v>4635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001296661554732622</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007496241594145376</v>
+        <v>0.0065032170570458</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -4958,19 +4958,19 @@
         <v>4883</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11718</v>
+        <v>10024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00372339015091332</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001407879539898057</v>
+        <v>0.001409410802763213</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008934373797389051</v>
+        <v>0.007643217909318781</v>
       </c>
     </row>
     <row r="26">
@@ -4987,19 +4987,19 @@
         <v>10014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4619</v>
+        <v>5136</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18257</v>
+        <v>18226</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01672524421955533</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007714349583446214</v>
+        <v>0.008578518075703463</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03049219499924569</v>
+        <v>0.0304402691800829</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8058</v>
+        <v>7265</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00301928533048944</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01130571379868467</v>
+        <v>0.01019195574004229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -5029,19 +5029,19 @@
         <v>12166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6703</v>
+        <v>6614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23057</v>
+        <v>21794</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009276420486576167</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005110827482472998</v>
+        <v>0.005043360758392562</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01758066904836909</v>
+        <v>0.01661723960830972</v>
       </c>
     </row>
     <row r="27">
@@ -5058,19 +5058,19 @@
         <v>583014</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>573162</v>
+        <v>573658</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>589593</v>
+        <v>589962</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9737315491411989</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9572776432420117</v>
+        <v>0.9581060512038694</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9847198880765063</v>
+        <v>0.9853351699269991</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>668</v>
@@ -5079,19 +5079,19 @@
         <v>704786</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>698203</v>
+        <v>697511</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>709413</v>
+        <v>709183</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9887933743345593</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9795577054767407</v>
+        <v>0.9785869133876151</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.995284476925932</v>
+        <v>0.9949625367162699</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1229</v>
@@ -5100,19 +5100,19 @@
         <v>1287801</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1274438</v>
+        <v>1276823</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1296192</v>
+        <v>1295996</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9819172501104166</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9717279524603907</v>
+        <v>0.9735466341002692</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9883152472793577</v>
+        <v>0.9881656456803937</v>
       </c>
     </row>
     <row r="28">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5991</v>
+        <v>5741</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001017568931553171</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.005887337324636343</v>
+        <v>0.005641374002301963</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5191</v>
+        <v>5195</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0007974724021159724</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.003997382276703398</v>
+        <v>0.004000711184600242</v>
       </c>
     </row>
     <row r="30">
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6856</v>
+        <v>6186</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.00688450399090332</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02441120769479545</v>
+        <v>0.02202438791012252</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6708</v>
+        <v>6557</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001489093650866035</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.005165997052041934</v>
+        <v>0.00504981698911635</v>
       </c>
     </row>
     <row r="31">
@@ -5330,19 +5330,19 @@
         <v>6874</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2806</v>
+        <v>2302</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14003</v>
+        <v>13703</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02447319007657159</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.009989863160519195</v>
+        <v>0.008194284290257529</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04985743363276617</v>
+        <v>0.04878823879924767</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -5351,19 +5351,19 @@
         <v>6224</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2504</v>
+        <v>2485</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12846</v>
+        <v>13840</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006116293928640182</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002460206805206798</v>
+        <v>0.0024414951411709</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01262297696899822</v>
+        <v>0.01360016760727304</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>12</v>
@@ -5372,19 +5372,19 @@
         <v>13098</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>7080</v>
+        <v>6799</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23830</v>
+        <v>23159</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01008682507214892</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.005452515500565288</v>
+        <v>0.005235909637439987</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01835104456375812</v>
+        <v>0.01783451735689378</v>
       </c>
     </row>
     <row r="32">
@@ -5401,19 +5401,19 @@
         <v>272062</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>263381</v>
+        <v>264577</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>276659</v>
+        <v>276925</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9686423059325251</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.937735985919303</v>
+        <v>0.9419958045273995</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9850124570414301</v>
+        <v>0.9859592181969065</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>928</v>
@@ -5422,19 +5422,19 @@
         <v>1010408</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1003371</v>
+        <v>1002337</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1014511</v>
+        <v>1014453</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9928661371398066</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9859516001617042</v>
+        <v>0.9849346784007456</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9968980789800569</v>
+        <v>0.9968407293030045</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1186</v>
@@ -5443,19 +5443,19 @@
         <v>1282470</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1272002</v>
+        <v>1271595</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1288988</v>
+        <v>1289637</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9876266088748691</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9795652200367557</v>
+        <v>0.9792522174613454</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9926464656349232</v>
+        <v>0.993146247520464</v>
       </c>
     </row>
     <row r="33">
@@ -5547,19 +5547,19 @@
         <v>5945</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2031</v>
+        <v>2072</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13112</v>
+        <v>13375</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001796469727361247</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0006136213308445448</v>
+        <v>0.0006261869222584084</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003962481785971744</v>
+        <v>0.004041852039851819</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -5568,19 +5568,19 @@
         <v>10333</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5053</v>
+        <v>5170</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18456</v>
+        <v>18588</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003041886438675753</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00148760642247313</v>
+        <v>0.001521964095986177</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.005433071822389651</v>
+        <v>0.005471800290735677</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>15</v>
@@ -5589,19 +5589,19 @@
         <v>16278</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>9316</v>
+        <v>9674</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26637</v>
+        <v>27586</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002427340708741903</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00138917620807529</v>
+        <v>0.00144261301969633</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.003972069409097473</v>
+        <v>0.00411357705173197</v>
       </c>
     </row>
     <row r="35">
@@ -5618,19 +5618,19 @@
         <v>8195</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3826</v>
+        <v>3977</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>15293</v>
+        <v>16309</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.002476560829370989</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001156355328012376</v>
+        <v>0.00120196582255603</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.004621441903843286</v>
+        <v>0.004928429435679095</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -5639,19 +5639,19 @@
         <v>2849</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7624</v>
+        <v>7620</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0008386037249105903</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.000271826963251046</v>
+        <v>0.000271887094931821</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.002244438927930069</v>
+        <v>0.002243182049902006</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -5660,19 +5660,19 @@
         <v>11044</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5993</v>
+        <v>5797</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20058</v>
+        <v>19238</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.001646846889801569</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0008936603995107221</v>
+        <v>0.0008643725038194449</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.002991096821110968</v>
+        <v>0.002868748421786421</v>
       </c>
     </row>
     <row r="36">
@@ -5689,19 +5689,19 @@
         <v>41900</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29845</v>
+        <v>29998</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>55492</v>
+        <v>58364</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01266218443948466</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.009019023865034937</v>
+        <v>0.009065310000417008</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01676952012665783</v>
+        <v>0.017637690716812</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>19</v>
@@ -5710,19 +5710,19 @@
         <v>19386</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>12216</v>
+        <v>12024</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>30291</v>
+        <v>28964</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005706912409911991</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003596246312733423</v>
+        <v>0.003539702454896253</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.008917149024429629</v>
+        <v>0.008526548695301273</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>57</v>
@@ -5731,19 +5731,19 @@
         <v>61286</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>46947</v>
+        <v>46987</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>80088</v>
+        <v>79706</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009138962652590019</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.007000644951593425</v>
+        <v>0.007006657141946255</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01194267596136544</v>
+        <v>0.01188571523353436</v>
       </c>
     </row>
     <row r="37">
@@ -5760,19 +5760,19 @@
         <v>3253030</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3237638</v>
+        <v>3235386</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3267496</v>
+        <v>3267027</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9830647850037831</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9784132039791904</v>
+        <v>0.9777328435092287</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.987436380427454</v>
+        <v>0.9872947031982858</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3174</v>
@@ -5781,19 +5781,19 @@
         <v>3364406</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3350777</v>
+        <v>3351770</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3373526</v>
+        <v>3374091</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9904125974265017</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9864005818981433</v>
+        <v>0.9866929520281907</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9930973931463775</v>
+        <v>0.9932638251325724</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6270</v>
@@ -5802,19 +5802,19 @@
         <v>6617436</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6595815</v>
+        <v>6595829</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6635085</v>
+        <v>6635201</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9867868497488665</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9835627881018285</v>
+        <v>0.9835648250016478</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9894186019945671</v>
+        <v>0.9894358746993381</v>
       </c>
     </row>
     <row r="38">
